--- a/grupos/4ALCV - Estadisticos 20202.xlsx
+++ b/grupos/4ALCV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="154">
   <si>
     <t>Materia</t>
   </si>
@@ -185,21 +185,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
+    <t>Ángel Martínez Noe Cristobal</t>
+  </si>
+  <si>
+    <t>González Nuñez Veronica</t>
+  </si>
+  <si>
+    <t>Rivera Serra Alma Lilian</t>
+  </si>
+  <si>
     <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
-    <t>Camarillo Aburto Raymundo</t>
-  </si>
-  <si>
-    <t>Ángel Martínez Noe Cristobal</t>
-  </si>
-  <si>
-    <t>González Nuñez Veronica</t>
-  </si>
-  <si>
-    <t>Rivera Serra Alma Lilian</t>
-  </si>
-  <si>
     <t>Muñoz Rivadeneyra Salvador</t>
   </si>
   <si>
@@ -224,259 +224,259 @@
     <t>CARMONA</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MANZANET</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>SALGADO</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>ESDRAS ALAN</t>
+  </si>
+  <si>
+    <t>MELISSA VIANNEY</t>
+  </si>
+  <si>
+    <t>JOANNA GUADALUPE</t>
+  </si>
+  <si>
+    <t>ROBERTO JESUS</t>
+  </si>
+  <si>
+    <t>CONCEPCION</t>
+  </si>
+  <si>
+    <t>JADE EMILY</t>
+  </si>
+  <si>
+    <t>ASHLEY ZURELY</t>
+  </si>
+  <si>
+    <t>ALCANTARA</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>AJACTLE</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CANALES</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MANZANET</t>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>LAZARO</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
   </si>
   <si>
     <t>MORALES</t>
   </si>
   <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
     <t>RIVERA</t>
   </si>
   <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
   </si>
   <si>
     <t>VENTURA</t>
   </si>
   <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>NOLASCO</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
+    <t>XALAMIHUA</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
   </si>
   <si>
     <t>LINARES</t>
   </si>
   <si>
-    <t>SALGADO</t>
-  </si>
-  <si>
-    <t>ROQUE</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
   </si>
   <si>
     <t>CHIPAHUA</t>
   </si>
   <si>
-    <t>FLORES</t>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
   </si>
   <si>
     <t>TEZOCO</t>
   </si>
   <si>
-    <t>DE LA LUZ</t>
+    <t>FERRAL</t>
+  </si>
+  <si>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
   </si>
   <si>
     <t>ZEPEDA</t>
   </si>
   <si>
-    <t>ESDRAS ALAN</t>
-  </si>
-  <si>
-    <t>MELISSA VIANNEY</t>
-  </si>
-  <si>
-    <t>JOANNA GUADALUPE</t>
+    <t>ZOPIYACTLE</t>
+  </si>
+  <si>
+    <t>BITHIA MARIAN</t>
+  </si>
+  <si>
+    <t>IRIDIA</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>BRENDA JANET</t>
+  </si>
+  <si>
+    <t>ADOLFO ANTONIO</t>
+  </si>
+  <si>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>JHOVANA</t>
   </si>
   <si>
     <t>ANDRES</t>
   </si>
   <si>
-    <t>ROBERTO JESUS</t>
-  </si>
-  <si>
-    <t>CONCEPCION</t>
-  </si>
-  <si>
-    <t>JADE EMILY</t>
+    <t>AZAEL</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>ANGEL ALEXIS</t>
+  </si>
+  <si>
+    <t>ANGEL JARET</t>
   </si>
   <si>
     <t>KARLA MICHEL</t>
   </si>
   <si>
+    <t>ALLISSON NICOLE</t>
+  </si>
+  <si>
     <t>KARLA</t>
   </si>
   <si>
+    <t>ROSA JATZIRI</t>
+  </si>
+  <si>
+    <t>JOHANA</t>
+  </si>
+  <si>
+    <t>VALERIA GUADALUPE</t>
+  </si>
+  <si>
     <t>ESMERALDA</t>
   </si>
   <si>
-    <t>ASHLEY ZURELY</t>
+    <t>NELLY MARLENE</t>
+  </si>
+  <si>
+    <t>CECILIA ARLETH</t>
+  </si>
+  <si>
+    <t>LAISHA STEFANY</t>
+  </si>
+  <si>
+    <t>DANA YARELI</t>
   </si>
   <si>
     <t>ANGEL ISAURO</t>
-  </si>
-  <si>
-    <t>ALCANTARA</t>
-  </si>
-  <si>
-    <t>ALTAMIRANO</t>
-  </si>
-  <si>
-    <t>AJACTLE</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CANALES</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>LAZARO</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>XALAMIHUA</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>FERRAL</t>
-  </si>
-  <si>
-    <t>TZOYONTLE</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>ZOPIYACTLE</t>
-  </si>
-  <si>
-    <t>BITHIA MARIAN</t>
-  </si>
-  <si>
-    <t>IRIDIA</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>BRENDA JANET</t>
-  </si>
-  <si>
-    <t>ADOLFO ANTONIO</t>
-  </si>
-  <si>
-    <t>EDITH</t>
-  </si>
-  <si>
-    <t>JHOVANA</t>
-  </si>
-  <si>
-    <t>AZAEL</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>ANGEL ALEXIS</t>
-  </si>
-  <si>
-    <t>ANGEL JARET</t>
-  </si>
-  <si>
-    <t>ALLISSON NICOLE</t>
-  </si>
-  <si>
-    <t>ROSA JATZIRI</t>
-  </si>
-  <si>
-    <t>JOHANA</t>
-  </si>
-  <si>
-    <t>VALERIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>NELLY MARLENE</t>
-  </si>
-  <si>
-    <t>CECILIA ARLETH</t>
-  </si>
-  <si>
-    <t>LAISHA STEFANY</t>
-  </si>
-  <si>
-    <t>DANA YARELI</t>
   </si>
   <si>
     <t>ORIEL</t>
@@ -1251,13 +1251,13 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1272,13 +1272,13 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>-1</v>
@@ -1293,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="P7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -1314,13 +1314,13 @@
         <v>7</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X7">
         <v>5</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z7">
         <v>6</v>
@@ -1456,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>-1</v>
@@ -1634,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L11">
         <v>-1</v>
@@ -1676,7 +1676,7 @@
         <v>5</v>
       </c>
       <c r="Y11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z11">
         <v>6</v>
@@ -1901,7 +1901,7 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L14">
         <v>8</v>
@@ -1943,7 +1943,7 @@
         <v>6</v>
       </c>
       <c r="Y14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z14">
         <v>8</v>
@@ -2147,7 +2147,7 @@
         <v>5</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -2168,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>-1</v>
@@ -2210,7 +2210,7 @@
         <v>5</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z17">
         <v>7</v>
@@ -2319,13 +2319,13 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -2340,13 +2340,13 @@
         <v>6</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J19">
         <v>5</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L19">
         <v>-1</v>
@@ -2361,7 +2361,7 @@
         <v>7</v>
       </c>
       <c r="P19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -2382,13 +2382,13 @@
         <v>7</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X19">
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z19">
         <v>7</v>
@@ -2408,7 +2408,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -2429,13 +2429,13 @@
         <v>5</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J20">
         <v>5</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <v>-1</v>
@@ -2450,7 +2450,7 @@
         <v>6</v>
       </c>
       <c r="P20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X20">
         <v>5</v>
@@ -2613,7 +2613,7 @@
         <v>7</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L22">
         <v>8</v>
@@ -2791,7 +2791,7 @@
         <v>5</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L24">
         <v>7</v>
@@ -2833,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="Y24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z24">
         <v>7</v>
@@ -3147,7 +3147,7 @@
         <v>5</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L28">
         <v>6</v>
@@ -3189,7 +3189,7 @@
         <v>7</v>
       </c>
       <c r="Y28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z28">
         <v>7</v>
@@ -3770,7 +3770,7 @@
         <v>5</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L35">
         <v>9</v>
@@ -3812,7 +3812,7 @@
         <v>6</v>
       </c>
       <c r="Y35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z35">
         <v>8</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -3984,27 +3984,27 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>63.64</v>
       </c>
       <c r="G2">
-        <v>27.27</v>
+        <v>36.36</v>
       </c>
       <c r="H2">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -4013,19 +4013,19 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>63.64</v>
+        <v>72.73</v>
       </c>
       <c r="G3">
-        <v>36.36</v>
+        <v>27.27</v>
       </c>
       <c r="H3">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -4045,30 +4045,30 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>72.73</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="G4">
-        <v>27.27</v>
+        <v>18.18</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -4077,51 +4077,51 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>78.79000000000001</v>
+        <v>87.88</v>
       </c>
       <c r="G5">
-        <v>18.18</v>
+        <v>12.12</v>
       </c>
       <c r="H5">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>21.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>33</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>87.88</v>
+        <v>90.91</v>
       </c>
       <c r="G6">
-        <v>12.12</v>
+        <v>9.09</v>
       </c>
       <c r="H6">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4132,10 +4132,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>33</v>
@@ -4144,48 +4144,48 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>90.91</v>
       </c>
       <c r="G7">
+        <v>9.09</v>
+      </c>
+      <c r="H7">
+        <v>7.6</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>7.8</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
       <c r="J7">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>33</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4201,7 +4201,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4239,416 +4239,136 @@
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920273</v>
+        <v>19330051920271</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920271</v>
+        <v>19330051920442</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920271</v>
+        <v>19330051920420</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920271</v>
+        <v>19330051920284</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920442</v>
+        <v>19330051920286</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920442</v>
+        <v>19330051920443</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>19330051920278</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>19330051920420</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>19330051920420</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>19330051920284</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>19330051920284</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>19330051920284</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>19330051920286</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>19330051920286</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>19330051920286</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>19330051920289</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>19330051920292</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19330051920295</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>19330051920443</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>19330051920304</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4687,118 +4407,118 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920271</v>
+        <v>19330051920273</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920284</v>
+        <v>19330051920271</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920286</v>
+        <v>19330051920442</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920273</v>
+        <v>19330051920420</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920442</v>
+        <v>19330051920284</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920420</v>
+        <v>19330051920286</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920278</v>
+        <v>19330051920443</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4806,98 +4526,98 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920289</v>
+        <v>19330051920270</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920292</v>
+        <v>19330051920272</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920295</v>
+        <v>19330051920269</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920443</v>
+        <v>19330051920268</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920304</v>
+        <v>19330051920274</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920270</v>
+        <v>18330051920242</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
         <v>134</v>
@@ -4908,13 +4628,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920272</v>
+        <v>18330051920321</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
         <v>135</v>
@@ -4925,13 +4645,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920269</v>
+        <v>19330051920278</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
         <v>136</v>
@@ -4942,13 +4662,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920268</v>
+        <v>19330051920449</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
         <v>137</v>
@@ -4959,13 +4679,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920274</v>
+        <v>19330051920279</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
         <v>138</v>
@@ -4976,13 +4696,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920242</v>
+        <v>19330051920447</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
         <v>139</v>
@@ -4993,13 +4713,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920321</v>
+        <v>19330051920287</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
         <v>140</v>
@@ -5010,13 +4730,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920449</v>
+        <v>19330051920289</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
         <v>141</v>
@@ -5027,13 +4747,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920279</v>
+        <v>19330051920343</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
         <v>142</v>
@@ -5044,13 +4764,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920447</v>
+        <v>19330051920292</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
         <v>143</v>
@@ -5061,13 +4781,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920287</v>
+        <v>19330051920293</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
         <v>144</v>
@@ -5078,13 +4798,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920343</v>
+        <v>19330051920294</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
         <v>145</v>
@@ -5095,13 +4815,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920293</v>
+        <v>19330051920296</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
         <v>146</v>
@@ -5112,13 +4832,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920294</v>
+        <v>19330051920295</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
         <v>147</v>
@@ -5129,13 +4849,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920296</v>
+        <v>19330051920297</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
         <v>148</v>
@@ -5146,16 +4866,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920297</v>
+        <v>19330051920298</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5163,16 +4883,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920298</v>
+        <v>19330051920299</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5180,13 +4900,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920299</v>
+        <v>19330051920301</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
         <v>150</v>
@@ -5197,13 +4917,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920301</v>
+        <v>19330051920300</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
         <v>151</v>
@@ -5214,13 +4934,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920300</v>
+        <v>19330051920304</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
         <v>152</v>
@@ -5234,10 +4954,10 @@
         <v>19330051920305</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
         <v>153</v>
@@ -5253,7 +4973,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5288,22 +5008,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920278</v>
+        <v>19330051920292</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -5311,45 +5031,45 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920278</v>
+        <v>19330051920292</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920443</v>
+        <v>19330051920295</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -5357,48 +5077,94 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920443</v>
+        <v>19330051920295</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920289</v>
+        <v>19330051920443</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920443</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920278</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4ALCV - Estadisticos 20202.xlsx
+++ b/grupos/4ALCV - Estadisticos 20202.xlsx
@@ -1032,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S4">
         <v>-1</v>
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="Y4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z4">
         <v>8</v>
@@ -1121,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S5">
         <v>-1</v>
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S6">
         <v>10</v>
@@ -1299,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S7">
         <v>-1</v>
@@ -1388,7 +1388,7 @@
         <v>7</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S8">
         <v>-1</v>
@@ -1477,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S9">
         <v>-1</v>
@@ -1498,7 +1498,7 @@
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z9">
         <v>6</v>
@@ -1566,7 +1566,7 @@
         <v>8</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S10">
         <v>-1</v>
@@ -1655,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="R11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S11">
         <v>-1</v>
@@ -1744,7 +1744,7 @@
         <v>6</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S12">
         <v>-1</v>
@@ -1833,7 +1833,7 @@
         <v>8</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S13">
         <v>-1</v>
@@ -1922,7 +1922,7 @@
         <v>8</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S14">
         <v>-1</v>
@@ -2011,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S15">
         <v>-1</v>
@@ -2100,7 +2100,7 @@
         <v>10</v>
       </c>
       <c r="R16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S16">
         <v>-1</v>
@@ -2189,7 +2189,7 @@
         <v>5</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S17">
         <v>-1</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S18">
         <v>-1</v>
@@ -2367,7 +2367,7 @@
         <v>7</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S19">
         <v>-1</v>
@@ -2388,7 +2388,7 @@
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z19">
         <v>7</v>
@@ -2456,7 +2456,7 @@
         <v>5</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S20">
         <v>-1</v>
@@ -2477,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="Y20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z20">
         <v>-1</v>
@@ -2545,7 +2545,7 @@
         <v>10</v>
       </c>
       <c r="R21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S21">
         <v>-1</v>
@@ -2634,7 +2634,7 @@
         <v>6</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S22">
         <v>-1</v>
@@ -2723,7 +2723,7 @@
         <v>7</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S23">
         <v>-1</v>
@@ -2744,7 +2744,7 @@
         <v>6</v>
       </c>
       <c r="Y23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z23">
         <v>6</v>
@@ -2812,7 +2812,7 @@
         <v>8</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S24">
         <v>-1</v>
@@ -2901,7 +2901,7 @@
         <v>7</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S25">
         <v>-1</v>
@@ -2922,7 +2922,7 @@
         <v>6</v>
       </c>
       <c r="Y25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z25">
         <v>7</v>
@@ -2990,7 +2990,7 @@
         <v>8</v>
       </c>
       <c r="R26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S26">
         <v>-1</v>
@@ -3079,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="R27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S27">
         <v>-1</v>
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="Y27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z27">
         <v>8</v>
@@ -3168,7 +3168,7 @@
         <v>9</v>
       </c>
       <c r="R28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S28">
         <v>9</v>
@@ -3189,7 +3189,7 @@
         <v>7</v>
       </c>
       <c r="Y28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z28">
         <v>7</v>
@@ -3257,7 +3257,7 @@
         <v>8</v>
       </c>
       <c r="R29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S29">
         <v>-1</v>
@@ -3278,7 +3278,7 @@
         <v>8</v>
       </c>
       <c r="Y29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z29">
         <v>8</v>
@@ -3346,7 +3346,7 @@
         <v>5</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S30">
         <v>-1</v>
@@ -3435,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S31">
         <v>-1</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="Y31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z31">
         <v>9</v>
@@ -3524,7 +3524,7 @@
         <v>8</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S32">
         <v>-1</v>
@@ -3545,7 +3545,7 @@
         <v>6</v>
       </c>
       <c r="Y32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z32">
         <v>7</v>
@@ -3613,7 +3613,7 @@
         <v>9</v>
       </c>
       <c r="R33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S33">
         <v>10</v>
@@ -3702,7 +3702,7 @@
         <v>5</v>
       </c>
       <c r="R34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S34">
         <v>-1</v>
@@ -3791,7 +3791,7 @@
         <v>8</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S35">
         <v>-1</v>
@@ -3880,7 +3880,7 @@
         <v>8</v>
       </c>
       <c r="R36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S36">
         <v>-1</v>

--- a/grupos/4ALCV - Estadisticos 20202.xlsx
+++ b/grupos/4ALCV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="154">
   <si>
     <t>Materia</t>
   </si>
@@ -191,6 +191,9 @@
     <t>Ángel Martínez Noe Cristobal</t>
   </si>
   <si>
+    <t>Muñoz Rivadeneyra Salvador</t>
+  </si>
+  <si>
     <t>González Nuñez Veronica</t>
   </si>
   <si>
@@ -200,9 +203,6 @@
     <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
-    <t>Muñoz Rivadeneyra Salvador</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -215,262 +215,262 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ALCANTARA</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>AJACTLE</t>
+  </si>
+  <si>
     <t>ARIAS</t>
   </si>
   <si>
     <t>ALONSO</t>
   </si>
   <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
     <t>CARMONA</t>
   </si>
   <si>
+    <t>CANALES</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>LAZARO</t>
+  </si>
+  <si>
     <t>LOPEZ</t>
   </si>
   <si>
     <t>MANZANET</t>
   </si>
   <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>XALAMIHUA</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
     <t>NOLASCO</t>
   </si>
   <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
     <t>ORTEGA</t>
   </si>
   <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
     <t>SALGADO</t>
   </si>
   <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
     <t>ROQUE</t>
   </si>
   <si>
     <t>ANDRADE</t>
   </si>
   <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>FERRAL</t>
+  </si>
+  <si>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
     <t>DE LA LUZ</t>
   </si>
   <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>ZOPIYACTLE</t>
+  </si>
+  <si>
+    <t>BITHIA MARIAN</t>
+  </si>
+  <si>
+    <t>IRIDIA</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
     <t>ESDRAS ALAN</t>
   </si>
   <si>
     <t>MELISSA VIANNEY</t>
   </si>
   <si>
+    <t>BRENDA JANET</t>
+  </si>
+  <si>
     <t>JOANNA GUADALUPE</t>
   </si>
   <si>
+    <t>ADOLFO ANTONIO</t>
+  </si>
+  <si>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>JHOVANA</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>AZAEL</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
     <t>ROBERTO JESUS</t>
   </si>
   <si>
+    <t>ANGEL ALEXIS</t>
+  </si>
+  <si>
     <t>CONCEPCION</t>
   </si>
   <si>
     <t>JADE EMILY</t>
   </si>
   <si>
+    <t>ANGEL JARET</t>
+  </si>
+  <si>
+    <t>KARLA MICHEL</t>
+  </si>
+  <si>
+    <t>ALLISSON NICOLE</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>ROSA JATZIRI</t>
+  </si>
+  <si>
+    <t>JOHANA</t>
+  </si>
+  <si>
+    <t>VALERIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>ESMERALDA</t>
+  </si>
+  <si>
+    <t>NELLY MARLENE</t>
+  </si>
+  <si>
+    <t>CECILIA ARLETH</t>
+  </si>
+  <si>
+    <t>LAISHA STEFANY</t>
+  </si>
+  <si>
     <t>ASHLEY ZURELY</t>
-  </si>
-  <si>
-    <t>ALCANTARA</t>
-  </si>
-  <si>
-    <t>ALTAMIRANO</t>
-  </si>
-  <si>
-    <t>AJACTLE</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CANALES</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>LAZARO</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>XALAMIHUA</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>LINARES</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>CHIPAHUA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
-    <t>FERRAL</t>
-  </si>
-  <si>
-    <t>TZOYONTLE</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
-  </si>
-  <si>
-    <t>ZOPIYACTLE</t>
-  </si>
-  <si>
-    <t>BITHIA MARIAN</t>
-  </si>
-  <si>
-    <t>IRIDIA</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>BRENDA JANET</t>
-  </si>
-  <si>
-    <t>ADOLFO ANTONIO</t>
-  </si>
-  <si>
-    <t>EDITH</t>
-  </si>
-  <si>
-    <t>JHOVANA</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>AZAEL</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>ANGEL ALEXIS</t>
-  </si>
-  <si>
-    <t>ANGEL JARET</t>
-  </si>
-  <si>
-    <t>KARLA MICHEL</t>
-  </si>
-  <si>
-    <t>ALLISSON NICOLE</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>ROSA JATZIRI</t>
-  </si>
-  <si>
-    <t>JOHANA</t>
-  </si>
-  <si>
-    <t>VALERIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>ESMERALDA</t>
-  </si>
-  <si>
-    <t>NELLY MARLENE</t>
-  </si>
-  <si>
-    <t>CECILIA ARLETH</t>
-  </si>
-  <si>
-    <t>LAISHA STEFANY</t>
   </si>
   <si>
     <t>DANA YARELI</t>
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T4">
         <v>9</v>
@@ -1124,7 +1124,7 @@
         <v>6</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T5">
         <v>5</v>
@@ -1281,7 +1281,7 @@
         <v>6</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -1302,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="S7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -1391,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="S8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T8">
         <v>8</v>
@@ -1459,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>6</v>
@@ -1480,7 +1480,7 @@
         <v>8</v>
       </c>
       <c r="S9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T9">
         <v>7</v>
@@ -1501,7 +1501,7 @@
         <v>6</v>
       </c>
       <c r="Z9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA9">
         <v>6</v>
@@ -1569,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="S10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -1637,7 +1637,7 @@
         <v>7</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -1658,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="S11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T11">
         <v>5</v>
@@ -1747,7 +1747,7 @@
         <v>8</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T12">
         <v>10</v>
@@ -1836,7 +1836,7 @@
         <v>6</v>
       </c>
       <c r="S13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T13">
         <v>7</v>
@@ -1925,7 +1925,7 @@
         <v>8</v>
       </c>
       <c r="S14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T14">
         <v>7</v>
@@ -2014,7 +2014,7 @@
         <v>8</v>
       </c>
       <c r="S15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T15">
         <v>8</v>
@@ -2103,7 +2103,7 @@
         <v>10</v>
       </c>
       <c r="S16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T16">
         <v>10</v>
@@ -2171,7 +2171,7 @@
         <v>6</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>5</v>
@@ -2192,7 +2192,7 @@
         <v>6</v>
       </c>
       <c r="S17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T17">
         <v>5</v>
@@ -2213,7 +2213,7 @@
         <v>6</v>
       </c>
       <c r="Z17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA17">
         <v>5</v>
@@ -2281,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T18">
         <v>9</v>
@@ -2349,7 +2349,7 @@
         <v>8</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M19">
         <v>5</v>
@@ -2370,7 +2370,7 @@
         <v>5</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>8</v>
@@ -2391,7 +2391,7 @@
         <v>7</v>
       </c>
       <c r="Z19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA19">
         <v>6</v>
@@ -2417,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -2438,7 +2438,7 @@
         <v>7</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>5</v>
@@ -2459,7 +2459,7 @@
         <v>7</v>
       </c>
       <c r="S20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T20">
         <v>5</v>
@@ -2480,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA20">
         <v>5</v>
@@ -2548,7 +2548,7 @@
         <v>10</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T21">
         <v>10</v>
@@ -2637,7 +2637,7 @@
         <v>8</v>
       </c>
       <c r="S22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T22">
         <v>9</v>
@@ -2726,7 +2726,7 @@
         <v>8</v>
       </c>
       <c r="S23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T23">
         <v>8</v>
@@ -2747,7 +2747,7 @@
         <v>6</v>
       </c>
       <c r="Z23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA23">
         <v>6</v>
@@ -2815,7 +2815,7 @@
         <v>9</v>
       </c>
       <c r="S24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T24">
         <v>8</v>
@@ -2904,7 +2904,7 @@
         <v>8</v>
       </c>
       <c r="S25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T25">
         <v>8</v>
@@ -2993,7 +2993,7 @@
         <v>9</v>
       </c>
       <c r="S26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T26">
         <v>8</v>
@@ -3082,7 +3082,7 @@
         <v>10</v>
       </c>
       <c r="S27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T27">
         <v>8</v>
@@ -3260,7 +3260,7 @@
         <v>6</v>
       </c>
       <c r="S29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T29">
         <v>10</v>
@@ -3281,7 +3281,7 @@
         <v>7</v>
       </c>
       <c r="Z29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA29">
         <v>9</v>
@@ -3349,7 +3349,7 @@
         <v>8</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T30">
         <v>8</v>
@@ -3370,7 +3370,7 @@
         <v>7</v>
       </c>
       <c r="Z30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA30">
         <v>7</v>
@@ -3438,7 +3438,7 @@
         <v>10</v>
       </c>
       <c r="S31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T31">
         <v>8</v>
@@ -3506,7 +3506,7 @@
         <v>8</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M32">
         <v>8</v>
@@ -3527,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="S32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T32">
         <v>5</v>
@@ -3705,7 +3705,7 @@
         <v>7</v>
       </c>
       <c r="S34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T34">
         <v>6</v>
@@ -3794,7 +3794,7 @@
         <v>6</v>
       </c>
       <c r="S35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T35">
         <v>8</v>
@@ -3883,7 +3883,7 @@
         <v>10</v>
       </c>
       <c r="S36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T36">
         <v>8</v>
@@ -3981,19 +3981,19 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>63.64</v>
+        <v>84.84999999999999</v>
       </c>
       <c r="G2">
-        <v>36.36</v>
+        <v>15.15</v>
       </c>
       <c r="H2">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4013,16 +4013,16 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>72.73</v>
+        <v>90.91</v>
       </c>
       <c r="G3">
-        <v>27.27</v>
+        <v>9.09</v>
       </c>
       <c r="H3">
         <v>7.3</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -4045,30 +4045,30 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>78.79000000000001</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>18.18</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>21.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -4077,19 +4077,19 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>87.88</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>12.12</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>33</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>33</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>7.6</v>
@@ -4164,10 +4164,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>33</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4201,7 +4201,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4229,146 +4229,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>19330051920273</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>19330051920271</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>19330051920442</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>19330051920420</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>19330051920284</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>19330051920286</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>19330051920443</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4407,132 +4267,132 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920273</v>
+        <v>19330051920270</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920271</v>
+        <v>19330051920272</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920442</v>
+        <v>19330051920269</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920420</v>
+        <v>19330051920273</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920284</v>
+        <v>19330051920271</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920286</v>
+        <v>19330051920268</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920443</v>
+        <v>19330051920442</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920270</v>
+        <v>19330051920274</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
         <v>129</v>
@@ -4543,13 +4403,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920272</v>
+        <v>18330051920242</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
         <v>130</v>
@@ -4560,13 +4420,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920269</v>
+        <v>18330051920321</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
         <v>131</v>
@@ -4577,13 +4437,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920268</v>
+        <v>19330051920278</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
         <v>132</v>
@@ -4594,13 +4454,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920274</v>
+        <v>19330051920449</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
         <v>133</v>
@@ -4611,13 +4471,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920242</v>
+        <v>19330051920279</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
         <v>134</v>
@@ -4628,13 +4488,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920321</v>
+        <v>19330051920420</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
         <v>135</v>
@@ -4645,13 +4505,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920278</v>
+        <v>19330051920447</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
         <v>136</v>
@@ -4662,13 +4522,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920449</v>
+        <v>19330051920284</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
         <v>137</v>
@@ -4679,13 +4539,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920279</v>
+        <v>19330051920286</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
         <v>138</v>
@@ -4696,13 +4556,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920447</v>
+        <v>19330051920287</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
         <v>139</v>
@@ -4713,13 +4573,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920287</v>
+        <v>19330051920289</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
         <v>140</v>
@@ -4730,13 +4590,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920289</v>
+        <v>19330051920343</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>141</v>
@@ -4747,13 +4607,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920343</v>
+        <v>19330051920292</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>142</v>
@@ -4764,13 +4624,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920292</v>
+        <v>19330051920293</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
         <v>143</v>
@@ -4781,13 +4641,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920293</v>
+        <v>19330051920294</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
         <v>144</v>
@@ -4798,13 +4658,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920294</v>
+        <v>19330051920296</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
         <v>145</v>
@@ -4815,13 +4675,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920296</v>
+        <v>19330051920295</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
         <v>146</v>
@@ -4832,13 +4692,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920295</v>
+        <v>19330051920297</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
         <v>147</v>
@@ -4849,16 +4709,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920297</v>
+        <v>19330051920298</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4866,16 +4726,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920298</v>
+        <v>19330051920299</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4883,13 +4743,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920299</v>
+        <v>19330051920301</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
         <v>149</v>
@@ -4900,13 +4760,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920301</v>
+        <v>19330051920443</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
         <v>150</v>
@@ -4920,10 +4780,10 @@
         <v>19330051920300</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
         <v>151</v>
@@ -4937,10 +4797,10 @@
         <v>19330051920304</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
         <v>152</v>
@@ -4954,10 +4814,10 @@
         <v>19330051920305</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
         <v>153</v>
@@ -4973,7 +4833,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5003,21 +4863,21 @@
         <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920292</v>
+        <v>19330051920271</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -5031,16 +4891,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920292</v>
+        <v>19330051920271</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -5054,16 +4914,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920295</v>
+        <v>19330051920420</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -5077,16 +4937,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920295</v>
+        <v>19330051920420</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -5100,16 +4960,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920443</v>
+        <v>19330051920286</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -5123,39 +4983,39 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920443</v>
+        <v>19330051920286</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920278</v>
+        <v>19330051920273</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -5164,6 +5024,29 @@
         <v>55</v>
       </c>
       <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920442</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9">
         <v>5</v>
       </c>
     </row>
